--- a/prep_and_checklists/Julia Yagil 10th Anniversary/Julia Yagil 10th Anniversary_2025-03-30_0.xlsx
+++ b/prep_and_checklists/Julia Yagil 10th Anniversary/Julia Yagil 10th Anniversary_2025-03-30_0.xlsx
@@ -8,15 +8,28 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/davidcuvin/purveyor_project/prep_and_checklists/Julia Yagil 10th Anniversary/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F9AA9182-DF04-8642-B5AC-A0264C873A05}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5EAD4319-3591-244E-95AD-04F914380C04}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2460" windowWidth="30240" windowHeight="17720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="780" windowWidth="30240" windowHeight="17720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="prep_sheet" sheetId="1" r:id="rId1"/>
     <sheet name="order_sheet" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -784,8 +797,8 @@
   </sheetPr>
   <dimension ref="A1:E69"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A47" workbookViewId="0">
-      <selection activeCell="B56" sqref="B56"/>
+    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="D27" sqref="D27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="21" x14ac:dyDescent="0.25"/>
@@ -794,7 +807,7 @@
     <col min="2" max="2" width="23.5" style="2" customWidth="1"/>
     <col min="3" max="3" width="8.83203125" style="2"/>
     <col min="4" max="4" width="53.5" style="2" customWidth="1"/>
-    <col min="5" max="5" width="25.33203125" style="2" customWidth="1"/>
+    <col min="5" max="5" width="40" style="2" customWidth="1"/>
     <col min="6" max="16384" width="8.83203125" style="2"/>
   </cols>
   <sheetData>
@@ -1452,7 +1465,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup scale="51" orientation="portrait"/>
+  <pageSetup scale="49" orientation="portrait"/>
 </worksheet>
 </file>
 
